--- a/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
+++ b/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C7DD6-E5E4-4AB2-AC91-DC8657CD18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD4529-D2EB-4556-8114-7FBCEB632E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +278,15 @@
   </si>
   <si>
     <t>12/19-21/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/27,28/2022</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2396,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2742,12 +2743,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,7 +2909,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.173</v>
+        <v>135.673</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2918,7 +2919,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>163.54000000000002</v>
+        <v>166.04000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4595,9 +4596,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -4607,10 +4612,14 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="48" t="s">
+        <v>81</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4626,15 +4635,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>44927</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4642,15 +4655,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>44958</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4658,7 +4675,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>44986</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4674,7 +4693,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45017</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4690,7 +4711,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45047</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4706,7 +4729,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45078</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4722,7 +4747,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45108</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4738,7 +4765,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45139</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4754,7 +4783,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45170</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4770,7 +4801,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45200</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4786,7 +4819,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45231</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4802,7 +4837,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45261</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4818,7 +4855,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45292</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4834,7 +4873,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45323</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4850,7 +4891,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45352</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4866,7 +4909,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45383</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4882,7 +4927,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45413</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4898,7 +4945,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45444</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4914,7 +4963,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45474</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4930,7 +4981,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45505</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4946,7 +4999,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45536</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4962,7 +5017,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45566</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4978,7 +5035,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45597</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4994,7 +5053,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45627</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5010,7 +5071,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45658</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5026,7 +5089,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45689</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5042,7 +5107,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45717</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5058,7 +5125,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45748</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5074,7 +5143,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45778</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5090,7 +5161,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45809</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5106,7 +5179,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45839</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5122,7 +5197,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45870</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5138,7 +5215,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45901</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5154,7 +5233,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45931</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5170,7 +5251,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45962</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5186,7 +5269,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45992</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5202,7 +5287,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46023</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5218,7 +5305,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46054</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5234,7 +5323,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>46082</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5250,7 +5341,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46113</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5266,7 +5359,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46143</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5282,7 +5377,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>46174</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5298,7 +5395,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>46204</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5314,7 +5413,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>46235</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5330,7 +5431,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>46266</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5346,7 +5449,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>46296</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5362,7 +5467,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>46327</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -5442,20 +5549,36 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5471,7 +5594,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -5488,8 +5611,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                              OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
+++ b/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD4529-D2EB-4556-8114-7FBCEB632E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A99863-90EB-4F3D-826E-B3B7C5323599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>12/27,28/2022</t>
+  </si>
+  <si>
+    <t>SR ADMIN ASST I</t>
   </si>
 </sst>
 </file>
@@ -2746,9 +2749,9 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <pane ySplit="3576" topLeftCell="A81" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,7 +2794,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -2909,7 +2914,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.673</v>
+        <v>136.923</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2919,7 +2924,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>166.04000000000002</v>
+        <v>167.29000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4679,13 +4684,15 @@
         <v>44986</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -4696,7 +4703,9 @@
       <c r="A91" s="40">
         <v>45017</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4708,7 +4717,9 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45015</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">

--- a/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
+++ b/REGULAR/MARINDUQUE AURORA ARCEREO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A99863-90EB-4F3D-826E-B3B7C5323599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1573DAAC-C90E-4343-83C6-1CE3CF5884A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>SR ADMIN ASST I</t>
+  </si>
+  <si>
+    <t>3/20,21/2023</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2399,25 +2401,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2724,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2742,16 +2744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A81" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,11 +2762,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -2914,7 +2916,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.923</v>
+        <v>134.923</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4683,11 +4685,15 @@
       <c r="A90" s="40">
         <v>44986</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>2</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
@@ -4697,12 +4703,12 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>55</v>
       </c>
@@ -4722,10 +4728,10 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -4737,13 +4743,15 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
@@ -4755,11 +4763,13 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49">
+        <v>44993</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4773,11 +4783,11 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4795,7 +4805,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4813,7 +4823,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4831,7 +4841,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4849,7 +4859,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4867,7 +4877,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4885,7 +4895,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4903,7 +4913,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4921,7 +4931,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4939,7 +4949,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4957,7 +4967,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4975,7 +4985,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4993,7 +5003,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5011,7 +5021,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5029,7 +5039,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5047,7 +5057,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5065,7 +5075,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5083,7 +5093,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5101,7 +5111,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5119,7 +5129,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5137,7 +5147,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5155,7 +5165,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5173,7 +5183,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5191,7 +5201,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5209,7 +5219,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5227,7 +5237,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5245,7 +5255,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5263,7 +5273,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5281,7 +5291,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5299,7 +5309,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5317,7 +5327,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5335,7 +5345,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5353,7 +5363,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5371,7 +5381,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5389,7 +5399,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5407,7 +5417,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5425,7 +5435,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5443,7 +5453,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5461,7 +5471,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5479,7 +5489,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5496,7 +5506,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>46266</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5512,7 +5524,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>46296</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -5528,7 +5542,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>46327</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5576,20 +5592,68 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5606,10 +5670,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5632,7 +5696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5641,8 +5705,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
